--- a/assets/excel/exp/en/11.3.1_ENG.xlsx
+++ b/assets/excel/exp/en/11.3.1_ENG.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Vmfgus09\os\OS-04\2. ZRÓWNOWAŻONY ROZWÓJ_AGENDA 2030_SDG\4. BIG DATA\4. Platforma dla statystyk eksp\Excele rankingujące\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Vmfgus09\os\OS-04\2. ZRÓWNOWAŻONY ROZWÓJ_AGENDA 2030_SDG\4. BIG DATA\4. Platforma dla statystyk eksp\Zmiany na witrynie eksp\Excele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147E1056-27B2-49ED-B06D-1ABEB630F0B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1651A1FF-6BDB-4B1E-94C5-05DFE2E84A5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,9 +49,6 @@
     <t>Kielce</t>
   </si>
   <si>
-    <t>Krakow</t>
-  </si>
-  <si>
     <t>Lublin</t>
   </si>
   <si>
@@ -127,16 +124,7 @@
     <t>Polska</t>
   </si>
   <si>
-    <t>PL</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
     <t xml:space="preserve"> The population in 2020 for the analyzed areas</t>
-  </si>
-  <si>
-    <t>Indicator 11.3.1  - Ratio of land consumption rate to population growth rate</t>
   </si>
   <si>
     <t>42.852</t>
@@ -589,9 +577,6 @@
     <t xml:space="preserve"> Population growth rate (PGR) [%]</t>
   </si>
   <si>
-    <t xml:space="preserve"> Land consumption rate to population growth rate   (LCRPGR) </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Land consumption per capita 2015 [m2/person] </t>
   </si>
   <si>
@@ -599,6 +584,21 @@
   </si>
   <si>
     <t xml:space="preserve"> The change in land consumption per capita [%]</t>
+  </si>
+  <si>
+    <t>0000000</t>
+  </si>
+  <si>
+    <t>Kraków</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11.3.1. Land consumption rate to population growth rate (LCRPGR) </t>
+  </si>
+  <si>
+    <t>Indicator 11.3.1 - Ratio of land consumption rate to population growth rate</t>
   </si>
 </sst>
 </file>
@@ -606,7 +606,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -737,7 +737,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -752,7 +752,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1091,7 +1091,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>35</v>
+        <v>188</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -1105,42 +1105,42 @@
       <c r="K1" s="20"/>
       <c r="L1" s="20"/>
     </row>
-    <row r="2" spans="1:12" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>33</v>
+        <v>186</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="I2" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="L2" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1151,10 +1151,10 @@
         <v>2061011</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E3" s="8">
         <v>320209</v>
@@ -1163,22 +1163,22 @@
         <v>318440</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1186,13 +1186,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E4" s="3">
         <v>376928</v>
@@ -1201,22 +1201,22 @@
         <v>370492</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1227,10 +1227,10 @@
         <v>2261011</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E5" s="3">
         <v>523360</v>
@@ -1239,36 +1239,36 @@
         <v>519638</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E6" s="3">
         <v>135336</v>
@@ -1277,22 +1277,22 @@
         <v>133738</v>
       </c>
       <c r="G6" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="H6" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>91</v>
-      </c>
       <c r="L6" s="18" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1303,10 +1303,10 @@
         <v>2469011</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E7" s="3">
         <v>553532</v>
@@ -1315,22 +1315,22 @@
         <v>529829</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1341,10 +1341,10 @@
         <v>2661011</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E8" s="3">
         <v>224341</v>
@@ -1353,36 +1353,36 @@
         <v>217413</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>6</v>
+        <v>185</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E9" s="3">
         <v>824645</v>
@@ -1391,22 +1391,22 @@
         <v>814960</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1414,13 +1414,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E10" s="3">
         <v>768685</v>
@@ -1429,36 +1429,36 @@
         <v>730918</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E11" s="3">
         <v>379511</v>
@@ -1467,36 +1467,36 @@
         <v>374031</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E12" s="3">
         <v>46203</v>
@@ -1505,36 +1505,36 @@
         <v>46504</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E13" s="3">
         <v>73147</v>
@@ -1543,36 +1543,36 @@
         <v>72309</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1">
         <v>2862011</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3">
         <v>187422</v>
@@ -1581,36 +1581,36 @@
         <v>186561</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L14" s="18" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1">
         <v>1661011</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E15" s="3">
         <v>136657</v>
@@ -1619,36 +1619,36 @@
         <v>131564</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L15" s="18" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>3064011</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E16" s="3">
         <v>659350</v>
@@ -1657,36 +1657,36 @@
         <v>654073</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L16" s="18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1">
         <v>1863011</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E17" s="3">
         <v>227047</v>
@@ -1695,36 +1695,36 @@
         <v>232187</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L17" s="18" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1">
         <v>3262011</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E18" s="3">
         <v>442219</v>
@@ -1733,36 +1733,36 @@
         <v>438213</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L18" s="18" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E19" s="3">
         <v>217186</v>
@@ -1771,36 +1771,36 @@
         <v>213234</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E20" s="3">
         <v>1877442</v>
@@ -1809,36 +1809,36 @@
         <v>1897784</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E21" s="3">
         <v>654478</v>
@@ -1847,36 +1847,36 @@
         <v>643926</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L21" s="18" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E22" s="3">
         <v>151228</v>
@@ -1885,30 +1885,30 @@
         <v>151300</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L22" s="18" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>32</v>
+        <v>184</v>
       </c>
       <c r="C23" s="16">
         <v>4624</v>
@@ -1923,22 +1923,22 @@
         <v>26025052</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="J23" s="19" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K23" s="19" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L23" s="19" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
